--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lgi4-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,7 +94,7 @@
     <t>Adam11</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H2">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I2">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J2">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.159305958408801</v>
+        <v>0.168045</v>
       </c>
       <c r="N2">
-        <v>0.159305958408801</v>
+        <v>0.504135</v>
       </c>
       <c r="O2">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="P2">
-        <v>0.102430032088768</v>
+        <v>0.08555333432892556</v>
       </c>
       <c r="Q2">
-        <v>0.2681827833069281</v>
+        <v>0.01179743118</v>
       </c>
       <c r="R2">
-        <v>0.2681827833069281</v>
+        <v>0.10617688062</v>
       </c>
       <c r="S2">
-        <v>0.0477567579959853</v>
+        <v>0.001512701483664428</v>
       </c>
       <c r="T2">
-        <v>0.0477567579959853</v>
+        <v>0.001512701483664428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H3">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I3">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J3">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.270285247909694</v>
+        <v>0.3243313333333334</v>
       </c>
       <c r="N3">
-        <v>0.270285247909694</v>
+        <v>0.972994</v>
       </c>
       <c r="O3">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631758</v>
       </c>
       <c r="P3">
-        <v>0.1737871382404053</v>
+        <v>0.1651202177631757</v>
       </c>
       <c r="Q3">
-        <v>0.4550102883485133</v>
+        <v>0.02276935692533334</v>
       </c>
       <c r="R3">
-        <v>0.4550102883485133</v>
+        <v>0.204924212328</v>
       </c>
       <c r="S3">
-        <v>0.08102614179178773</v>
+        <v>0.002919554221382341</v>
       </c>
       <c r="T3">
-        <v>0.08102614179178773</v>
+        <v>0.002919554221382341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.68344477498283</v>
+        <v>0.070204</v>
       </c>
       <c r="H4">
-        <v>1.68344477498283</v>
+        <v>0.210612</v>
       </c>
       <c r="I4">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J4">
-        <v>0.4662378505807585</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.12567491202796</v>
+        <v>0.01482133333333333</v>
       </c>
       <c r="N4">
-        <v>1.12567491202796</v>
+        <v>0.044464</v>
       </c>
       <c r="O4">
-        <v>0.7237828296708266</v>
+        <v>0.007545684107632571</v>
       </c>
       <c r="P4">
-        <v>0.7237828296708266</v>
+        <v>0.00754568410763257</v>
       </c>
       <c r="Q4">
-        <v>1.895011548982726</v>
+        <v>0.001040516885333333</v>
       </c>
       <c r="R4">
-        <v>1.895011548982726</v>
+        <v>0.009364651967999999</v>
       </c>
       <c r="S4">
-        <v>0.3374549507929854</v>
+        <v>0.0001334181494434132</v>
       </c>
       <c r="T4">
-        <v>0.3374549507929854</v>
+        <v>0.0001334181494434132</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.92725472718304</v>
+        <v>0.070204</v>
       </c>
       <c r="H5">
-        <v>1.92725472718304</v>
+        <v>0.210612</v>
       </c>
       <c r="I5">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J5">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.159305958408801</v>
+        <v>0.321026</v>
       </c>
       <c r="N5">
-        <v>0.159305958408801</v>
+        <v>0.9630780000000001</v>
       </c>
       <c r="O5">
-        <v>0.102430032088768</v>
+        <v>0.1634374406038719</v>
       </c>
       <c r="P5">
-        <v>0.102430032088768</v>
+        <v>0.1634374406038719</v>
       </c>
       <c r="Q5">
-        <v>0.3070231614117865</v>
+        <v>0.022537309304</v>
       </c>
       <c r="R5">
-        <v>0.3070231614117865</v>
+        <v>0.202835783736</v>
       </c>
       <c r="S5">
-        <v>0.05467327409278267</v>
+        <v>0.002889800389745941</v>
       </c>
       <c r="T5">
-        <v>0.05467327409278267</v>
+        <v>0.002889800389745941</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.92725472718304</v>
+        <v>0.070204</v>
       </c>
       <c r="H6">
-        <v>1.92725472718304</v>
+        <v>0.210612</v>
       </c>
       <c r="I6">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="J6">
-        <v>0.5337621494192415</v>
+        <v>0.01768138548345256</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.270285247909694</v>
+        <v>1.135989666666667</v>
       </c>
       <c r="N6">
-        <v>0.270285247909694</v>
+        <v>3.407969</v>
       </c>
       <c r="O6">
-        <v>0.1737871382404053</v>
+        <v>0.5783433231963941</v>
       </c>
       <c r="P6">
-        <v>0.1737871382404053</v>
+        <v>0.5783433231963941</v>
       </c>
       <c r="Q6">
-        <v>0.5209085217217977</v>
+        <v>0.07975101855866669</v>
       </c>
       <c r="R6">
-        <v>0.5209085217217977</v>
+        <v>0.717759167028</v>
       </c>
       <c r="S6">
-        <v>0.09276099644861761</v>
+        <v>0.01022591123921644</v>
       </c>
       <c r="T6">
-        <v>0.09276099644861761</v>
+        <v>0.01022591123921644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,929 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.250698</v>
+      </c>
+      <c r="I7">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J7">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.168045</v>
+      </c>
+      <c r="N7">
+        <v>0.504135</v>
+      </c>
+      <c r="O7">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="P7">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="Q7">
+        <v>0.29411784847</v>
+      </c>
+      <c r="R7">
+        <v>2.64706063623</v>
+      </c>
+      <c r="S7">
+        <v>0.03771265955821057</v>
+      </c>
+      <c r="T7">
+        <v>0.03771265955821057</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H8">
+        <v>5.250698</v>
+      </c>
+      <c r="I8">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J8">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3243313333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.972994</v>
+      </c>
+      <c r="O8">
+        <v>0.1651202177631758</v>
+      </c>
+      <c r="P8">
+        <v>0.1651202177631757</v>
+      </c>
+      <c r="Q8">
+        <v>0.5676552944235556</v>
+      </c>
+      <c r="R8">
+        <v>5.108897649812</v>
+      </c>
+      <c r="S8">
+        <v>0.07278643909703064</v>
+      </c>
+      <c r="T8">
+        <v>0.07278643909703063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H9">
+        <v>5.250698</v>
+      </c>
+      <c r="I9">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J9">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.044464</v>
+      </c>
+      <c r="O9">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="P9">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="Q9">
+        <v>0.02594078176355555</v>
+      </c>
+      <c r="R9">
+        <v>0.233467035872</v>
+      </c>
+      <c r="S9">
+        <v>0.003326203684719916</v>
+      </c>
+      <c r="T9">
+        <v>0.003326203684719916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H10">
+        <v>5.250698</v>
+      </c>
+      <c r="I10">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J10">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.321026</v>
+      </c>
+      <c r="N10">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="P10">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="Q10">
+        <v>0.5618701920493333</v>
+      </c>
+      <c r="R10">
+        <v>5.056831728444</v>
+      </c>
+      <c r="S10">
+        <v>0.0720446561774174</v>
+      </c>
+      <c r="T10">
+        <v>0.0720446561774174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.750232666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.250698</v>
+      </c>
+      <c r="I11">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="J11">
+        <v>0.4408087639602368</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.407969</v>
+      </c>
+      <c r="O11">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="P11">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="Q11">
+        <v>1.988246223595778</v>
+      </c>
+      <c r="R11">
+        <v>17.894216012362</v>
+      </c>
+      <c r="S11">
+        <v>0.2549388054428582</v>
+      </c>
+      <c r="T11">
+        <v>0.2549388054428582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.512578</v>
+      </c>
+      <c r="I12">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J12">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.168045</v>
+      </c>
+      <c r="N12">
+        <v>0.504135</v>
+      </c>
+      <c r="O12">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="P12">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="Q12">
+        <v>0.02871205667</v>
+      </c>
+      <c r="R12">
+        <v>0.25840851003</v>
+      </c>
+      <c r="S12">
+        <v>0.003681544741485505</v>
+      </c>
+      <c r="T12">
+        <v>0.003681544741485505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.92725472718304</v>
-      </c>
-      <c r="H7">
-        <v>1.92725472718304</v>
-      </c>
-      <c r="I7">
-        <v>0.5337621494192415</v>
-      </c>
-      <c r="J7">
-        <v>0.5337621494192415</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.12567491202796</v>
-      </c>
-      <c r="N7">
-        <v>1.12567491202796</v>
-      </c>
-      <c r="O7">
-        <v>0.7237828296708266</v>
-      </c>
-      <c r="P7">
-        <v>0.7237828296708266</v>
-      </c>
-      <c r="Q7">
-        <v>2.169462295477239</v>
-      </c>
-      <c r="R7">
-        <v>2.169462295477239</v>
-      </c>
-      <c r="S7">
-        <v>0.3863278788778412</v>
-      </c>
-      <c r="T7">
-        <v>0.3863278788778412</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.512578</v>
+      </c>
+      <c r="I13">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J13">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3243313333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.972994</v>
+      </c>
+      <c r="O13">
+        <v>0.1651202177631758</v>
+      </c>
+      <c r="P13">
+        <v>0.1651202177631757</v>
+      </c>
+      <c r="Q13">
+        <v>0.05541503539244445</v>
+      </c>
+      <c r="R13">
+        <v>0.498735318532</v>
+      </c>
+      <c r="S13">
+        <v>0.007105479572330721</v>
+      </c>
+      <c r="T13">
+        <v>0.007105479572330719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.512578</v>
+      </c>
+      <c r="I14">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J14">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.044464</v>
+      </c>
+      <c r="O14">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="P14">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="Q14">
+        <v>0.002532363132444444</v>
+      </c>
+      <c r="R14">
+        <v>0.022791268192</v>
+      </c>
+      <c r="S14">
+        <v>0.0003247070831928183</v>
+      </c>
+      <c r="T14">
+        <v>0.0003247070831928183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.512578</v>
+      </c>
+      <c r="I15">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J15">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.321026</v>
+      </c>
+      <c r="N15">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="P15">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="Q15">
+        <v>0.05485028834266667</v>
+      </c>
+      <c r="R15">
+        <v>0.4936525950840001</v>
+      </c>
+      <c r="S15">
+        <v>0.007033066036955136</v>
+      </c>
+      <c r="T15">
+        <v>0.007033066036955136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1708593333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.512578</v>
+      </c>
+      <c r="I16">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="J16">
+        <v>0.04303215965062364</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.407969</v>
+      </c>
+      <c r="O16">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="P16">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="Q16">
+        <v>0.1940944371202223</v>
+      </c>
+      <c r="R16">
+        <v>1.746849934082</v>
+      </c>
+      <c r="S16">
+        <v>0.02488736221665946</v>
+      </c>
+      <c r="T16">
+        <v>0.02488736221665946</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.937622</v>
+      </c>
+      <c r="I17">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J17">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.168045</v>
+      </c>
+      <c r="N17">
+        <v>0.504135</v>
+      </c>
+      <c r="O17">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="P17">
+        <v>0.08555333432892556</v>
+      </c>
+      <c r="Q17">
+        <v>0.33259589633</v>
+      </c>
+      <c r="R17">
+        <v>2.99336306697</v>
+      </c>
+      <c r="S17">
+        <v>0.04264642854556506</v>
+      </c>
+      <c r="T17">
+        <v>0.04264642854556506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.937622</v>
+      </c>
+      <c r="I18">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J18">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3243313333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.972994</v>
+      </c>
+      <c r="O18">
+        <v>0.1651202177631758</v>
+      </c>
+      <c r="P18">
+        <v>0.1651202177631757</v>
+      </c>
+      <c r="Q18">
+        <v>0.6419189533631111</v>
+      </c>
+      <c r="R18">
+        <v>5.777270580268</v>
+      </c>
+      <c r="S18">
+        <v>0.08230874487243206</v>
+      </c>
+      <c r="T18">
+        <v>0.08230874487243205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.937622</v>
+      </c>
+      <c r="I19">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J19">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.01482133333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.044464</v>
+      </c>
+      <c r="O19">
+        <v>0.007545684107632571</v>
+      </c>
+      <c r="P19">
+        <v>0.00754568410763257</v>
+      </c>
+      <c r="Q19">
+        <v>0.02933449162311111</v>
+      </c>
+      <c r="R19">
+        <v>0.264010424608</v>
+      </c>
+      <c r="S19">
+        <v>0.003761355190276423</v>
+      </c>
+      <c r="T19">
+        <v>0.003761355190276423</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H20">
+        <v>5.937622</v>
+      </c>
+      <c r="I20">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J20">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.321026</v>
+      </c>
+      <c r="N20">
+        <v>0.9630780000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="P20">
+        <v>0.1634374406038719</v>
+      </c>
+      <c r="Q20">
+        <v>0.6353770133906668</v>
+      </c>
+      <c r="R20">
+        <v>5.718393120516001</v>
+      </c>
+      <c r="S20">
+        <v>0.08146991799975345</v>
+      </c>
+      <c r="T20">
+        <v>0.08146991799975346</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.979207333333333</v>
+      </c>
+      <c r="H21">
+        <v>5.937622</v>
+      </c>
+      <c r="I21">
+        <v>0.498477690905687</v>
+      </c>
+      <c r="J21">
+        <v>0.4984776909056871</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.135989666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.407969</v>
+      </c>
+      <c r="O21">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="P21">
+        <v>0.5783433231963941</v>
+      </c>
+      <c r="Q21">
+        <v>2.248359078857556</v>
+      </c>
+      <c r="R21">
+        <v>20.235231709718</v>
+      </c>
+      <c r="S21">
+        <v>0.28829124429766</v>
+      </c>
+      <c r="T21">
+        <v>0.28829124429766</v>
       </c>
     </row>
   </sheetData>
